--- a/output/tables/nse_analysis_tab.xlsx
+++ b/output/tables/nse_analysis_tab.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -387,1666 +387,1521 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>altruistic</t>
+          <t>identification</t>
         </is>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>4.036144578313253</v>
+        <v>4.297619047619047</v>
       </c>
       <c r="D2">
-        <v>4.209677419354839</v>
+        <v>4.185144124168515</v>
       </c>
       <c r="E2">
-        <v>4.155555555555556</v>
+        <v>4.244444444444444</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>altruistic</t>
+          <t>identification</t>
         </is>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>4.081168831168831</v>
+        <v>4.25925925925926</v>
       </c>
       <c r="D3">
-        <v>4.192982456140351</v>
+        <v>4.210643015521065</v>
       </c>
       <c r="E3">
-        <v>4.244791666666667</v>
+        <v>4.263888888888889</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>altruistic</t>
+          <t>identification</t>
         </is>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>4.072327044025157</v>
+        <v>4.2171581769437</v>
       </c>
       <c r="D4">
-        <v>4.452173913043478</v>
+        <v>4.135</v>
       </c>
       <c r="E4">
-        <v>4.43</v>
+        <v>4.165738161559888</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>altruistic</t>
+          <t>identification</t>
         </is>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5">
-        <v>3.971875</v>
+        <v>4.190159574468085</v>
       </c>
       <c r="D5">
-        <v>4.314516129032258</v>
+        <v>4.181666666666667</v>
       </c>
       <c r="E5">
-        <v>4.330188679245283</v>
+        <v>4.133704735376044</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>altruistic</t>
+          <t>identification</t>
         </is>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6">
-        <v>3.886792452830189</v>
+        <v>4.025537634408602</v>
       </c>
       <c r="D6">
-        <v>4.402654867256637</v>
+        <v>4.092572062084257</v>
       </c>
       <c r="E6">
-        <v>4.397959183673469</v>
+        <v>4.191666666666666</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>altruistic</t>
-        </is>
+          <t>friends</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>4.020618556701031</v>
+        <v>2.446685878962536</v>
       </c>
       <c r="D7">
-        <v>3.973684210526316</v>
+        <v>2.438053097345133</v>
       </c>
       <c r="E7">
-        <v>4.166666666666667</v>
+        <v>2.483050847457627</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>conv_particip</t>
+          <t>friends</t>
         </is>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>1.167168674698795</v>
+        <v>2.516034985422741</v>
       </c>
       <c r="D8">
-        <v>1.164314516129032</v>
+        <v>2.503325942350333</v>
       </c>
       <c r="E8">
-        <v>1.144444444444444</v>
+        <v>2.563583815028902</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>conv_particip</t>
+          <t>friends</t>
         </is>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>1.188311688311688</v>
+        <v>2.712209302325582</v>
       </c>
       <c r="D9">
-        <v>1.180921052631579</v>
+        <v>2.736141906873614</v>
       </c>
       <c r="E9">
-        <v>1.1875</v>
+        <v>2.688953488372093</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>conv_particip</t>
+          <t>friends</t>
         </is>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>1.245253164556962</v>
+        <v>2.706231454005935</v>
       </c>
       <c r="D10">
-        <v>1.177173913043478</v>
+        <v>2.831485587583149</v>
       </c>
       <c r="E10">
-        <v>1.1675</v>
+        <v>2.977142857142857</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>conv_particip</t>
+          <t>friends</t>
         </is>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>1.196875</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>1.237903225806452</v>
+        <v>3.104212860310421</v>
       </c>
       <c r="E11">
-        <v>1.233490566037736</v>
+        <v>3.022988505747127</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>conv_particip</t>
+          <t>size_network</t>
         </is>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>1.165094339622641</v>
+        <v>3.132564841498559</v>
       </c>
       <c r="D12">
-        <v>1.264380530973451</v>
+        <v>2.097345132743363</v>
       </c>
       <c r="E12">
-        <v>1.255102040816326</v>
+        <v>1.463276836158192</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>conv_particip</t>
-        </is>
+          <t>size_network</t>
+        </is>
+      </c>
+      <c r="B13">
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>1.213917525773196</v>
+        <v>3.029069767441861</v>
       </c>
       <c r="D13">
-        <v>1.223684210526316</v>
+        <v>2.485587583148559</v>
       </c>
       <c r="E13">
-        <v>1.116666666666667</v>
+        <v>1.711815561959654</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>democracy_support</t>
+          <t>size_network</t>
         </is>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>2.132530120481928</v>
+        <v>3.107246376811594</v>
       </c>
       <c r="D14">
-        <v>1.92741935483871</v>
+        <v>2.427937915742794</v>
       </c>
       <c r="E14">
-        <v>1.722222222222222</v>
+        <v>1.672463768115942</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>democracy_support</t>
+          <t>size_network</t>
         </is>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>2.155844155844156</v>
+        <v>3.198224852071006</v>
       </c>
       <c r="D15">
-        <v>1.964912280701754</v>
+        <v>2.543237250554324</v>
       </c>
       <c r="E15">
-        <v>1.78125</v>
+        <v>1.771428571428571</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>democracy_support</t>
+          <t>size_network</t>
         </is>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <v>1.955696202531646</v>
+        <v>3.562300319488818</v>
       </c>
       <c r="D16">
-        <v>1.578260869565217</v>
+        <v>2.740576496674058</v>
       </c>
       <c r="E16">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>democracy_support</t>
+          <t>size_network_rec</t>
         </is>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>1.9875</v>
+        <v>0.6541786743515851</v>
       </c>
       <c r="D17">
-        <v>1.548387096774194</v>
+        <v>0.5530973451327433</v>
       </c>
       <c r="E17">
-        <v>1.556603773584906</v>
+        <v>0.5847457627118644</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>democracy_support</t>
+          <t>size_network_rec</t>
         </is>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>1.670886075949367</v>
+        <v>0.6220930232558139</v>
       </c>
       <c r="D18">
-        <v>1.486725663716814</v>
+        <v>0.6784922394678492</v>
       </c>
       <c r="E18">
-        <v>1.336734693877551</v>
+        <v>0.6397694524495677</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>democracy_support</t>
-        </is>
+          <t>size_network_rec</t>
+        </is>
+      </c>
+      <c r="B19">
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>1.791666666666667</v>
+        <v>0.6463768115942029</v>
       </c>
       <c r="D19">
-        <v>1.5</v>
+        <v>0.6452328159645233</v>
       </c>
       <c r="E19">
-        <v>1.533333333333333</v>
+        <v>0.6173913043478261</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>egalitarianism</t>
+          <t>size_network_rec</t>
         </is>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>1.931726909545531</v>
+        <v>0.6420118343195266</v>
       </c>
       <c r="D20">
-        <v>1.924731176707053</v>
+        <v>0.6541019955654102</v>
       </c>
       <c r="E20">
-        <v>2.111111120382945</v>
+        <v>0.6342857142857142</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>egalitarianism</t>
+          <t>size_network_rec</t>
         </is>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>1.948051948051948</v>
+        <v>0.7539936102236422</v>
       </c>
       <c r="D21">
-        <v>1.824561412920032</v>
+        <v>0.7184035476718403</v>
       </c>
       <c r="E21">
-        <v>2.170138888061047</v>
+        <v>0.5657142857142857</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>egalitarianism</t>
+          <t>gen_trust</t>
         </is>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>1.897274629874799</v>
+        <v>1.293650793650794</v>
       </c>
       <c r="D22">
-        <v>1.834782614915267</v>
+        <v>1.163716814159292</v>
       </c>
       <c r="E22">
-        <v>2.240000003576279</v>
+        <v>1.138888888888889</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>egalitarianism</t>
+          <t>gen_trust</t>
         </is>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>1.94791666418314</v>
+        <v>1.261904761904762</v>
       </c>
       <c r="D23">
-        <v>1.720430114576893</v>
+        <v>1.16629711751663</v>
       </c>
       <c r="E23">
-        <v>2.154088058561649</v>
+        <v>1.172222222222222</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>egalitarianism</t>
+          <t>gen_trust</t>
         </is>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>2.155136271842621</v>
+        <v>1.314814814814815</v>
       </c>
       <c r="D24">
-        <v>1.958702073688001</v>
+        <v>1.201773835920177</v>
       </c>
       <c r="E24">
-        <v>2.224489805649738</v>
+        <v>1.163888888888889</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>egalitarianism</t>
-        </is>
+          <t>gen_trust</t>
+        </is>
+      </c>
+      <c r="B25">
+        <v>4</v>
       </c>
       <c r="C25">
-        <v>2.05555555721124</v>
+        <v>1.225464190981432</v>
       </c>
       <c r="D25">
-        <v>2.061403509817625</v>
+        <v>1.288248337028825</v>
       </c>
       <c r="E25">
-        <v>2.244444473584493</v>
+        <v>1.244444444444444</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>friends</t>
+          <t>gen_trust</t>
         </is>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C26">
-        <v>2.365384615384615</v>
+        <v>1.424403183023873</v>
       </c>
       <c r="D26">
-        <v>2.161290322580645</v>
+        <v>1.401330376940133</v>
       </c>
       <c r="E26">
-        <v>2.662790697674418</v>
+        <v>1.313888888888889</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>friends</t>
+          <t>trust_minorities</t>
         </is>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2.389705882352941</v>
+        <v>2.545289855072464</v>
       </c>
       <c r="D27">
-        <v>2.442477876106194</v>
+        <v>2.536826119969628</v>
       </c>
       <c r="E27">
-        <v>2.732558139534884</v>
+        <v>2.511173184357542</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>friends</t>
+          <t>trust_minorities</t>
         </is>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>2.565217391304348</v>
+        <v>2.727927927927928</v>
       </c>
       <c r="D28">
-        <v>2.565217391304348</v>
+        <v>2.625850340136054</v>
       </c>
       <c r="E28">
-        <v>2.546391752577319</v>
+        <v>2.634078212290503</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>friends</t>
+          <t>trust_minorities</t>
         </is>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>2.644295302013423</v>
+        <v>2.743935309973046</v>
       </c>
       <c r="D29">
-        <v>2.741935483870968</v>
+        <v>2.701420029895366</v>
       </c>
       <c r="E29">
-        <v>2.933333333333333</v>
+        <v>2.657407407407407</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>friends</t>
+          <t>trust_minorities</t>
         </is>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30">
-        <v>3.123188405797102</v>
+        <v>2.95959595959596</v>
       </c>
       <c r="D30">
-        <v>3.168141592920354</v>
+        <v>2.878614916286149</v>
       </c>
       <c r="E30">
-        <v>3.050632911392405</v>
+        <v>2.895078922934076</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>friends</t>
-        </is>
+          <t>trust_minorities</t>
+        </is>
+      </c>
+      <c r="B31">
+        <v>5</v>
       </c>
       <c r="C31">
-        <v>3.191176470588236</v>
+        <v>3.127717391304348</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>3.088389513108614</v>
       </c>
       <c r="E31">
-        <v>2.692307692307693</v>
+        <v>2.957169459962756</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>gen_trust</t>
+          <t>trust_inst</t>
         </is>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32">
-        <v>1.975903614457831</v>
+        <v>1.640873015873016</v>
       </c>
       <c r="D32">
-        <v>1.935483870967742</v>
+        <v>1.444567627494457</v>
       </c>
       <c r="E32">
-        <v>1.977777777777778</v>
+        <v>1.783426183844011</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>gen_trust</t>
+          <t>trust_inst</t>
         </is>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33">
-        <v>1.961038961038961</v>
+        <v>1.658730158730159</v>
       </c>
       <c r="D33">
-        <v>1.921052631578947</v>
+        <v>1.424057649667406</v>
       </c>
       <c r="E33">
-        <v>1.9375</v>
+        <v>1.861111111111111</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>gen_trust</t>
+          <t>trust_inst</t>
         </is>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
       <c r="C34">
-        <v>2.006289308176101</v>
+        <v>1.628968253968254</v>
       </c>
       <c r="D34">
-        <v>1.947826086956522</v>
+        <v>1.479767184035477</v>
       </c>
       <c r="E34">
-        <v>1.96</v>
+        <v>1.921527777777778</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>gen_trust</t>
+          <t>trust_inst</t>
         </is>
       </c>
       <c r="B35">
         <v>4</v>
       </c>
       <c r="C35">
-        <v>1.98125</v>
+        <v>1.674666666666667</v>
       </c>
       <c r="D35">
-        <v>1.887096774193548</v>
+        <v>1.534090909090909</v>
       </c>
       <c r="E35">
-        <v>1.877358490566038</v>
+        <v>1.950694444444445</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>gen_trust</t>
+          <t>trust_inst</t>
         </is>
       </c>
       <c r="B36">
         <v>5</v>
       </c>
       <c r="C36">
-        <v>1.937106918238994</v>
+        <v>1.875</v>
       </c>
       <c r="D36">
-        <v>1.831858407079646</v>
+        <v>1.693458980044346</v>
       </c>
       <c r="E36">
-        <v>1.918367346938775</v>
+        <v>2.040972222222222</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>gen_trust</t>
-        </is>
+          <t>interest_pol</t>
+        </is>
+      </c>
+      <c r="B37">
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>1.989690721649485</v>
+        <v>1.563492063492063</v>
       </c>
       <c r="D37">
-        <v>1.947368421052632</v>
+        <v>1.853982300884956</v>
       </c>
       <c r="E37">
-        <v>1.933333333333333</v>
+        <v>1.672222222222222</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>identification</t>
+          <t>interest_pol</t>
         </is>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38">
-        <v>4.216867469879518</v>
+        <v>1.568783068783069</v>
       </c>
       <c r="D38">
-        <v>4.120967741935484</v>
+        <v>1.993348115299335</v>
       </c>
       <c r="E38">
-        <v>4.211111111111111</v>
+        <v>1.919444444444445</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>identification</t>
+          <t>interest_pol</t>
         </is>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C39">
-        <v>4.246753246753247</v>
+        <v>1.738095238095238</v>
       </c>
       <c r="D39">
-        <v>4.017543859649122</v>
+        <v>2.0509977827051</v>
       </c>
       <c r="E39">
-        <v>4.052083333333333</v>
+        <v>1.988888888888889</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>identification</t>
+          <t>interest_pol</t>
         </is>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C40">
-        <v>4.193037974683544</v>
+        <v>1.787798408488064</v>
       </c>
       <c r="D40">
-        <v>3.860869565217391</v>
+        <v>2.314855875831486</v>
       </c>
       <c r="E40">
-        <v>4.15</v>
+        <v>2.280555555555555</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>identification</t>
+          <t>interest_pol</t>
         </is>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C41">
-        <v>4.101910828025478</v>
+        <v>2.297082228116711</v>
       </c>
       <c r="D41">
-        <v>4.153225806451613</v>
+        <v>2.658536585365854</v>
       </c>
       <c r="E41">
-        <v>4.080188679245283</v>
+        <v>2.469444444444445</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>identification</t>
+          <t>satisf_demo</t>
         </is>
       </c>
       <c r="B42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>3.883647798742139</v>
+        <v>1.957446808510638</v>
       </c>
       <c r="D42">
-        <v>4.088495575221239</v>
+        <v>1.594235033259424</v>
       </c>
       <c r="E42">
-        <v>4.005102040816326</v>
+        <v>2.122905027932961</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>identification</t>
-        </is>
+          <t>satisf_demo</t>
+        </is>
+      </c>
+      <c r="B43">
+        <v>2</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>2.023809523809524</v>
       </c>
       <c r="D43">
-        <v>3.973684210526316</v>
+        <v>1.650776053215078</v>
       </c>
       <c r="E43">
-        <v>3.821428571428572</v>
+        <v>2.255555555555556</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>interest_pol</t>
+          <t>satisf_demo</t>
         </is>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>1.421686746987952</v>
+        <v>1.957559681697613</v>
       </c>
       <c r="D44">
-        <v>1.854838709677419</v>
+        <v>1.689578713968958</v>
       </c>
       <c r="E44">
-        <v>1.711111111111111</v>
+        <v>2.305555555555555</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>interest_pol</t>
+          <t>satisf_demo</t>
         </is>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C45">
-        <v>1.525974025974026</v>
+        <v>1.893899204244032</v>
       </c>
       <c r="D45">
-        <v>1.820175438596491</v>
+        <v>1.742793791574279</v>
       </c>
       <c r="E45">
-        <v>1.75</v>
+        <v>2.372222222222222</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>interest_pol</t>
+          <t>satisf_demo</t>
         </is>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C46">
-        <v>1.805031446540881</v>
+        <v>2.117333333333333</v>
       </c>
       <c r="D46">
-        <v>2.234782608695652</v>
+        <v>1.939024390243902</v>
       </c>
       <c r="E46">
-        <v>2.02</v>
+        <v>2.355555555555556</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>interest_pol</t>
+          <t>conv_particip</t>
         </is>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>1.7375</v>
+        <v>1.224867724867725</v>
       </c>
       <c r="D47">
-        <v>2.314516129032258</v>
+        <v>1.222777777777778</v>
       </c>
       <c r="E47">
-        <v>2.424528301886792</v>
+        <v>1.220670391061452</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>interest_pol</t>
+          <t>conv_particip</t>
         </is>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>2.176100628930818</v>
+        <v>1.21684350132626</v>
       </c>
       <c r="D48">
-        <v>2.787610619469027</v>
+        <v>1.221944444444444</v>
       </c>
       <c r="E48">
-        <v>2.571428571428572</v>
+        <v>1.21100278551532</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>interest_pol</t>
-        </is>
+          <t>conv_particip</t>
+        </is>
+      </c>
+      <c r="B49">
+        <v>3</v>
       </c>
       <c r="C49">
-        <v>2.206185567010309</v>
+        <v>1.172619047619048</v>
       </c>
       <c r="D49">
-        <v>2.447368421052631</v>
+        <v>1.203159645232816</v>
       </c>
       <c r="E49">
-        <v>2.466666666666667</v>
+        <v>1.186111111111111</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>justif_violence</t>
+          <t>conv_particip</t>
         </is>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C50">
-        <v>2.026104414319418</v>
+        <v>1.206233421750663</v>
       </c>
       <c r="D50">
-        <v>2.034946234956864</v>
+        <v>1.215833333333333</v>
       </c>
       <c r="E50">
-        <v>2.029629615942637</v>
+        <v>1.225626740947075</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>justif_violence</t>
+          <t>conv_particip</t>
         </is>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C51">
-        <v>2.178649230720171</v>
+        <v>1.21551724137931</v>
       </c>
       <c r="D51">
-        <v>2.049707600944921</v>
+        <v>1.241407982261641</v>
       </c>
       <c r="E51">
-        <v>1.916666655490796</v>
+        <v>1.239583333333333</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>justif_violence</t>
+          <t>unconv_particip</t>
         </is>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C52">
-        <v>2.096436053701916</v>
+        <v>1.287477954144621</v>
       </c>
       <c r="D52">
-        <v>1.776811587292215</v>
+        <v>1.311209439528024</v>
       </c>
       <c r="E52">
-        <v>1.826666662693024</v>
+        <v>1.158333333333333</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>justif_violence</t>
+          <t>unconv_particip</t>
         </is>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C53">
-        <v>1.974999997019768</v>
+        <v>1.355379188712522</v>
       </c>
       <c r="D53">
-        <v>1.95430106789835</v>
+        <v>1.402069475240207</v>
       </c>
       <c r="E53">
-        <v>1.993710694448003</v>
+        <v>1.17962962962963</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>justif_violence</t>
+          <t>unconv_particip</t>
         </is>
       </c>
       <c r="B54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C54">
-        <v>1.99999999250256</v>
+        <v>1.389920424403183</v>
       </c>
       <c r="D54">
-        <v>1.88790559346697</v>
+        <v>1.392461197339246</v>
       </c>
       <c r="E54">
-        <v>1.982993190385857</v>
+        <v>1.212037037037037</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>justif_violence</t>
-        </is>
+          <t>unconv_particip</t>
+        </is>
+      </c>
+      <c r="B55">
+        <v>4</v>
       </c>
       <c r="C55">
-        <v>2.05555555348595</v>
+        <v>1.425287356321839</v>
       </c>
       <c r="D55">
-        <v>1.894736823282744</v>
+        <v>1.446415373244642</v>
       </c>
       <c r="E55">
-        <v>2.244444417953491</v>
+        <v>1.217592592592593</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>prosoc_behave</t>
+          <t>unconv_particip</t>
         </is>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C56">
-        <v>1.689759036144578</v>
+        <v>1.572944297082228</v>
       </c>
       <c r="D56">
-        <v>1.560483870967742</v>
+        <v>1.577235772357723</v>
       </c>
       <c r="E56">
-        <v>1.522222222222222</v>
+        <v>1.285185185185185</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>prosoc_behave</t>
+          <t>egalitarianism</t>
         </is>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57">
-        <v>1.746753246753247</v>
+        <v>1.767195767195767</v>
       </c>
       <c r="D57">
-        <v>1.671052631578947</v>
+        <v>1.875368731563422</v>
       </c>
       <c r="E57">
-        <v>1.708333333333333</v>
+        <v>2.170370370370371</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>prosoc_behave</t>
+          <t>egalitarianism</t>
         </is>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58">
-        <v>1.688679245283019</v>
+        <v>1.909171075837742</v>
       </c>
       <c r="D58">
-        <v>1.71304347826087</v>
+        <v>1.877309682187731</v>
       </c>
       <c r="E58">
-        <v>1.62</v>
+        <v>2.160185185185185</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>prosoc_behave</t>
+          <t>egalitarianism</t>
         </is>
       </c>
       <c r="B59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C59">
-        <v>1.7</v>
+        <v>1.926807760141094</v>
       </c>
       <c r="D59">
-        <v>1.737903225806452</v>
+        <v>1.911308203991131</v>
       </c>
       <c r="E59">
-        <v>1.731132075471698</v>
+        <v>2.295370370370371</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>prosoc_behave</t>
+          <t>egalitarianism</t>
         </is>
       </c>
       <c r="B60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C60">
-        <v>1.691823899371069</v>
+        <v>1.935455349248453</v>
       </c>
       <c r="D60">
-        <v>1.787610619469026</v>
+        <v>1.876570583887657</v>
       </c>
       <c r="E60">
-        <v>1.816326530612245</v>
+        <v>2.141666666666667</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>prosoc_behave</t>
-        </is>
+          <t>egalitarianism</t>
+        </is>
+      </c>
+      <c r="B61">
+        <v>5</v>
       </c>
       <c r="C61">
-        <v>1.72680412371134</v>
+        <v>2.119363395225464</v>
       </c>
       <c r="D61">
-        <v>1.723684210526316</v>
+        <v>1.957132298595713</v>
       </c>
       <c r="E61">
-        <v>1.7</v>
+        <v>2.351851851851852</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>satisf_demo</t>
+          <t>altruistic</t>
         </is>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62">
-        <v>2.174698795180723</v>
+        <v>4.041005291005291</v>
       </c>
       <c r="D62">
-        <v>1.540322580645161</v>
+        <v>4.195796460176991</v>
       </c>
       <c r="E62">
-        <v>2.088888888888889</v>
+        <v>4.193055555555556</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>satisf_demo</t>
+          <t>altruistic</t>
         </is>
       </c>
       <c r="B63">
         <v>2</v>
       </c>
       <c r="C63">
-        <v>2.092105263157895</v>
+        <v>4.079365079365079</v>
       </c>
       <c r="D63">
-        <v>1.701754385964912</v>
+        <v>4.249445676274944</v>
       </c>
       <c r="E63">
-        <v>2.520833333333333</v>
+        <v>4.2375</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>satisf_demo</t>
+          <t>altruistic</t>
         </is>
       </c>
       <c r="B64">
         <v>3</v>
       </c>
       <c r="C64">
-        <v>2.069182389937107</v>
+        <v>4.011904761904762</v>
       </c>
       <c r="D64">
-        <v>1.908695652173913</v>
+        <v>4.334811529933481</v>
       </c>
       <c r="E64">
-        <v>2.37</v>
+        <v>4.341666666666667</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>satisf_demo</t>
+          <t>altruistic</t>
         </is>
       </c>
       <c r="B65">
         <v>4</v>
       </c>
       <c r="C65">
-        <v>2.01875</v>
+        <v>4.091511936339523</v>
       </c>
       <c r="D65">
-        <v>1.774193548387097</v>
+        <v>4.258314855875832</v>
       </c>
       <c r="E65">
-        <v>2.415094339622641</v>
+        <v>4.257660167130919</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>satisf_demo</t>
+          <t>altruistic</t>
         </is>
       </c>
       <c r="B66">
         <v>5</v>
       </c>
       <c r="C66">
-        <v>2.132075471698113</v>
+        <v>3.986737400530504</v>
       </c>
       <c r="D66">
-        <v>1.884955752212389</v>
+        <v>4.363636363636363</v>
       </c>
       <c r="E66">
-        <v>2.438775510204082</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>satisf_demo</t>
-        </is>
+          <t>prosoc_behave</t>
+        </is>
+      </c>
+      <c r="B67">
+        <v>1</v>
       </c>
       <c r="C67">
-        <v>2.084210526315789</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="D67">
-        <v>1.578947368421053</v>
+        <v>1.603982300884956</v>
       </c>
       <c r="E67">
-        <v>2.4</v>
+        <v>1.644444444444444</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>size_network</t>
+          <t>prosoc_behave</t>
         </is>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C68">
-        <v>3.205128205128205</v>
+        <v>1.723544973544973</v>
       </c>
       <c r="D68">
-        <v>2.451612903225806</v>
+        <v>1.732815964523282</v>
       </c>
       <c r="E68">
-        <v>0.9333333333333333</v>
+        <v>1.641666666666667</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>size_network</t>
+          <t>prosoc_behave</t>
         </is>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C69">
-        <v>3.102941176470588</v>
+        <v>1.654761904761905</v>
       </c>
       <c r="D69">
-        <v>2.421052631578947</v>
+        <v>1.740576496674058</v>
       </c>
       <c r="E69">
-        <v>1.083333333333333</v>
+        <v>1.673611111111111</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>size_network</t>
+          <t>prosoc_behave</t>
         </is>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C70">
-        <v>3.471014492753623</v>
+        <v>1.779840848806366</v>
       </c>
       <c r="D70">
-        <v>2.756521739130435</v>
+        <v>1.763858093126386</v>
       </c>
       <c r="E70">
-        <v>0.96</v>
+        <v>1.693055555555556</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>size_network</t>
+          <t>prosoc_behave</t>
         </is>
       </c>
       <c r="B71">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C71">
-        <v>3.268456375838926</v>
+        <v>1.856763925729443</v>
       </c>
       <c r="D71">
-        <v>3.120967741935484</v>
+        <v>1.839246119733925</v>
       </c>
       <c r="E71">
-        <v>1.094339622641509</v>
+        <v>1.768055555555555</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>size_network</t>
+          <t>democracy_support</t>
         </is>
       </c>
       <c r="B72">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C72">
-        <v>3.86231884057971</v>
+        <v>2.203703703703704</v>
       </c>
       <c r="D72">
-        <v>3.168141592920354</v>
+        <v>2.001106194690265</v>
       </c>
       <c r="E72">
-        <v>1.285714285714286</v>
+        <v>1.952777777777778</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>size_network</t>
-        </is>
+          <t>democracy_support</t>
+        </is>
+      </c>
+      <c r="B73">
+        <v>2</v>
       </c>
       <c r="C73">
-        <v>3.455882352941177</v>
+        <v>2.153439153439153</v>
       </c>
       <c r="D73">
-        <v>3.631578947368421</v>
+        <v>2.019955654101996</v>
       </c>
       <c r="E73">
-        <v>0.7333333333333333</v>
+        <v>1.869444444444444</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>trust_inst</t>
+          <t>democracy_support</t>
         </is>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C74">
-        <v>1.615963855421687</v>
+        <v>2.13527851458886</v>
       </c>
       <c r="D74">
-        <v>1.409274193548387</v>
+        <v>1.766075388026608</v>
       </c>
       <c r="E74">
-        <v>1.616666666666667</v>
+        <v>1.844444444444445</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>trust_inst</t>
+          <t>democracy_support</t>
         </is>
       </c>
       <c r="B75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C75">
-        <v>1.595779220779221</v>
+        <v>1.80106100795756</v>
       </c>
       <c r="D75">
-        <v>1.429824561403509</v>
+        <v>1.678492239467849</v>
       </c>
       <c r="E75">
-        <v>1.783854166666667</v>
+        <v>1.677777777777778</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>trust_inst</t>
+          <t>democracy_support</t>
         </is>
       </c>
       <c r="B76">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C76">
-        <v>1.75314465408805</v>
+        <v>1.829333333333333</v>
       </c>
       <c r="D76">
-        <v>1.582608695652174</v>
+        <v>1.502217294900222</v>
       </c>
       <c r="E76">
-        <v>1.98</v>
+        <v>1.527777777777778</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>trust_inst</t>
+          <t>justif_violence</t>
         </is>
       </c>
       <c r="B77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C77">
-        <v>1.74375</v>
+        <v>3.897707231040564</v>
       </c>
       <c r="D77">
-        <v>1.540322580645161</v>
+        <v>4.039823008849558</v>
       </c>
       <c r="E77">
-        <v>2.042452830188679</v>
+        <v>3.991666666666667</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>trust_inst</t>
+          <t>justif_violence</t>
         </is>
       </c>
       <c r="B78">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C78">
-        <v>1.810126582278481</v>
+        <v>3.870910698496905</v>
       </c>
       <c r="D78">
-        <v>1.701327433628319</v>
+        <v>3.992239467849224</v>
       </c>
       <c r="E78">
-        <v>2.028061224489796</v>
+        <v>3.887962962962963</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>trust_inst</t>
-        </is>
+          <t>justif_violence</t>
+        </is>
+      </c>
+      <c r="B79">
+        <v>3</v>
       </c>
       <c r="C79">
-        <v>1.79639175257732</v>
+        <v>3.809018567639257</v>
       </c>
       <c r="D79">
-        <v>1.578947368421053</v>
+        <v>3.948263118994826</v>
       </c>
       <c r="E79">
-        <v>2.183333333333333</v>
+        <v>3.846296296296296</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>trust_minorities</t>
+          <t>justif_violence</t>
         </is>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C80">
-        <v>2.778467907668641</v>
+        <v>3.824049513704686</v>
       </c>
       <c r="D80">
-        <v>2.531165315852902</v>
+        <v>4.005912786400591</v>
       </c>
       <c r="E80">
-        <v>2.34444442987442</v>
+        <v>3.925925925925926</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>trust_minorities</t>
+          <t>justif_violence</t>
         </is>
       </c>
       <c r="B81">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C81">
-        <v>2.844444438616435</v>
+        <v>3.836879432624114</v>
       </c>
       <c r="D81">
-        <v>2.597345132743363</v>
+        <v>4.073170731707317</v>
       </c>
       <c r="E81">
-        <v>2.590277779847383</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>trust_minorities</t>
-        </is>
-      </c>
-      <c r="B82">
-        <v>3</v>
-      </c>
-      <c r="C82">
-        <v>3.047619049425249</v>
-      </c>
-      <c r="D82">
-        <v>2.76811593822811</v>
-      </c>
-      <c r="E82">
-        <v>2.72390571627954</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>trust_minorities</t>
-        </is>
-      </c>
-      <c r="B83">
-        <v>4</v>
-      </c>
-      <c r="C83">
-        <v>2.884531588336221</v>
-      </c>
-      <c r="D83">
-        <v>2.917355365989622</v>
-      </c>
-      <c r="E83">
-        <v>2.914285715421041</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>trust_minorities</t>
-        </is>
-      </c>
-      <c r="B84">
-        <v>5</v>
-      </c>
-      <c r="C84">
-        <v>3.320175442256426</v>
-      </c>
-      <c r="D84">
-        <v>3.217261909374169</v>
-      </c>
-      <c r="E84">
-        <v>3.139455784340294</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>trust_minorities</t>
-        </is>
-      </c>
-      <c r="C85">
-        <v>3.121863799710427</v>
-      </c>
-      <c r="D85">
-        <v>3.153153161744814</v>
-      </c>
-      <c r="E85">
-        <v>2.955555566151937</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>unconv_particip</t>
-        </is>
-      </c>
-      <c r="B86">
-        <v>1</v>
-      </c>
-      <c r="C86">
-        <v>1.299196782600449</v>
-      </c>
-      <c r="D86">
-        <v>1.241935483870968</v>
-      </c>
-      <c r="E86">
-        <v>1.137037036154005</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>unconv_particip</t>
-        </is>
-      </c>
-      <c r="B87">
-        <v>2</v>
-      </c>
-      <c r="C87">
-        <v>1.365800859866204</v>
-      </c>
-      <c r="D87">
-        <v>1.423976604352918</v>
-      </c>
-      <c r="E87">
-        <v>1.128472218910853</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>unconv_particip</t>
-        </is>
-      </c>
-      <c r="B88">
-        <v>3</v>
-      </c>
-      <c r="C88">
-        <v>1.509433957015943</v>
-      </c>
-      <c r="D88">
-        <v>1.391304340569869</v>
-      </c>
-      <c r="E88">
-        <v>1.156666668653488</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>unconv_particip</t>
-        </is>
-      </c>
-      <c r="B89">
-        <v>4</v>
-      </c>
-      <c r="C89">
-        <v>1.347916661202908</v>
-      </c>
-      <c r="D89">
-        <v>1.483870963896474</v>
-      </c>
-      <c r="E89">
-        <v>1.17610062743133</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>unconv_particip</t>
-        </is>
-      </c>
-      <c r="B90">
-        <v>5</v>
-      </c>
-      <c r="C90">
-        <v>1.513626828133685</v>
-      </c>
-      <c r="D90">
-        <v>1.696165189278864</v>
-      </c>
-      <c r="E90">
-        <v>1.326530613461319</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>unconv_particip</t>
-        </is>
-      </c>
-      <c r="C91">
-        <v>1.563573875378088</v>
-      </c>
-      <c r="D91">
-        <v>1.587719293017136</v>
-      </c>
-      <c r="E91">
-        <v>1.31111110051473</v>
+        <v>3.990740740740741</v>
       </c>
     </row>
   </sheetData>
